--- a/data_year/zb/批发和零售业/限额以上批发业企业资产及负债/按国民经济行业分限额以上批发业企业流动资产.xlsx
+++ b/data_year/zb/批发和零售业/限额以上批发业企业资产及负债/按国民经济行业分限额以上批发业企业流动资产.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U22"/>
+  <dimension ref="A1:U13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,1342 +538,805 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>561.5836</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+        <v>1735.1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2799.9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1114.6</v>
+      </c>
       <c r="E2" t="n">
-        <v>468.481</v>
+        <v>3092.8</v>
       </c>
       <c r="F2" t="n">
-        <v>87.7594</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+        <v>2086.9</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1166.5</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2168.7</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1529.3</v>
+      </c>
       <c r="J2" t="n">
-        <v>808.4</v>
+        <v>12858.4</v>
       </c>
       <c r="K2" t="n">
-        <v>388.9717</v>
+        <v>3107.4</v>
       </c>
       <c r="L2" t="n">
-        <v>1321.2594</v>
+        <v>3164.7</v>
       </c>
       <c r="M2" t="n">
-        <v>224.0778</v>
+        <v>4345.8</v>
       </c>
       <c r="N2" t="n">
-        <v>857.8231</v>
-      </c>
-      <c r="O2" t="inlineStr"/>
+        <v>5657.6</v>
+      </c>
+      <c r="O2" t="n">
+        <v>31041.1</v>
+      </c>
       <c r="P2" t="n">
-        <v>1118.5539</v>
-      </c>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
+        <v>1487.7</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>4258.1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>959.9</v>
+      </c>
+      <c r="S2" t="n">
+        <v>2908</v>
+      </c>
       <c r="T2" t="n">
-        <v>850.6900000000001</v>
+        <v>14289.8</v>
       </c>
       <c r="U2" t="n">
-        <v>2992.0814</v>
+        <v>6734.3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2340.0911</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2974.4437</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1632.9252</v>
+      </c>
       <c r="E3" t="n">
-        <v>549.7231</v>
+        <v>4163.5626</v>
       </c>
       <c r="F3" t="n">
-        <v>89.92100000000001</v>
-      </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>2792.3423</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1567.6748</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2730.843</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2364.5594</v>
+      </c>
+      <c r="J3" t="n">
+        <v>16462.1859</v>
+      </c>
       <c r="K3" t="n">
-        <v>406.4238</v>
+        <v>4116.9501</v>
       </c>
       <c r="L3" t="n">
-        <v>1008.7486</v>
+        <v>3840.8434</v>
       </c>
       <c r="M3" t="n">
-        <v>204.4404</v>
+        <v>6181.394</v>
       </c>
       <c r="N3" t="n">
-        <v>842.7609</v>
-      </c>
-      <c r="O3" t="inlineStr"/>
+        <v>7142.8162</v>
+      </c>
+      <c r="O3" t="n">
+        <v>41011.7894</v>
+      </c>
       <c r="P3" t="n">
-        <v>1111.859</v>
-      </c>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
+        <v>1636.6605</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>5880.739</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1648.7542</v>
+      </c>
+      <c r="S3" t="n">
+        <v>3194.7957</v>
+      </c>
+      <c r="T3" t="n">
+        <v>18588.5344</v>
+      </c>
       <c r="U3" t="n">
-        <v>2644.4269</v>
+        <v>8407.9827</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+          <t>2012年</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2607.31234</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3332.41004</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2069.22612</v>
+      </c>
       <c r="E4" t="n">
-        <v>619.2</v>
+        <v>4952.62339</v>
       </c>
       <c r="F4" t="n">
-        <v>122.7315</v>
-      </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+        <v>3437.71184</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2383.97694</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3038.68879</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2509.68101</v>
+      </c>
+      <c r="J4" t="n">
+        <v>15460.13762</v>
+      </c>
       <c r="K4" t="n">
-        <v>416.6254</v>
+        <v>4104.82793</v>
       </c>
       <c r="L4" t="n">
-        <v>1082.1</v>
+        <v>4278.88313</v>
       </c>
       <c r="M4" t="n">
-        <v>214.9</v>
+        <v>8485.73698</v>
       </c>
       <c r="N4" t="n">
-        <v>796.5</v>
-      </c>
-      <c r="O4" t="inlineStr"/>
+        <v>8194.56875</v>
+      </c>
+      <c r="O4" t="n">
+        <v>49253.88979</v>
+      </c>
       <c r="P4" t="n">
-        <v>1193.2056</v>
-      </c>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
+        <v>2263.87955</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>9634.76397</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1281.2203</v>
+      </c>
+      <c r="S4" t="n">
+        <v>3107.7649</v>
+      </c>
+      <c r="T4" t="n">
+        <v>21345.95841</v>
+      </c>
       <c r="U4" t="n">
-        <v>2782.3492</v>
+        <v>10183.95394</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>358.2342</v>
+        <v>3103.23445</v>
       </c>
       <c r="C5" t="n">
-        <v>1536.09122</v>
+        <v>4083.9379</v>
       </c>
       <c r="D5" t="n">
-        <v>348.43804</v>
+        <v>2138.60971</v>
       </c>
       <c r="E5" t="n">
-        <v>737.90644</v>
+        <v>6203.89947</v>
       </c>
       <c r="F5" t="n">
-        <v>219.81578</v>
+        <v>4330.36633</v>
       </c>
       <c r="G5" t="n">
-        <v>321.12925</v>
+        <v>2757.67023</v>
       </c>
       <c r="H5" t="n">
-        <v>213.17806</v>
+        <v>3687.27641</v>
       </c>
       <c r="I5" t="n">
-        <v>463.29234</v>
+        <v>3061.91677</v>
       </c>
       <c r="J5" t="n">
-        <v>2308.70342</v>
+        <v>18831.74921</v>
       </c>
       <c r="K5" t="n">
-        <v>596.1416</v>
+        <v>5272.46975</v>
       </c>
       <c r="L5" t="n">
-        <v>1139.47467</v>
+        <v>4644.29032</v>
       </c>
       <c r="M5" t="n">
-        <v>292.18299</v>
+        <v>9829.265659999999</v>
       </c>
       <c r="N5" t="n">
-        <v>825.8545</v>
+        <v>10809.37847</v>
       </c>
       <c r="O5" t="n">
-        <v>3845.91145</v>
+        <v>61129.86663</v>
       </c>
       <c r="P5" t="n">
-        <v>530.2318</v>
+        <v>2556.54702</v>
       </c>
       <c r="Q5" t="n">
-        <v>1506.66308</v>
+        <v>12120.74543</v>
       </c>
       <c r="R5" t="n">
-        <v>93.3553</v>
+        <v>1368.35618</v>
       </c>
       <c r="S5" t="n">
-        <v>365.23564</v>
+        <v>3724.34866</v>
       </c>
       <c r="T5" t="n">
-        <v>1712.19997</v>
+        <v>26275.54026</v>
       </c>
       <c r="U5" t="n">
-        <v>2159.98733</v>
+        <v>12077.25728</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>767.71695</v>
+        <v>3500.24832</v>
       </c>
       <c r="C6" t="n">
-        <v>2204.42197</v>
+        <v>4953.55058</v>
       </c>
       <c r="D6" t="n">
-        <v>383.25768</v>
+        <v>2816.91997</v>
       </c>
       <c r="E6" t="n">
-        <v>1079.70921</v>
+        <v>7595.17752</v>
       </c>
       <c r="F6" t="n">
-        <v>498.76346</v>
+        <v>5141.65108</v>
       </c>
       <c r="G6" t="n">
-        <v>409.15688</v>
+        <v>3396.9372</v>
       </c>
       <c r="H6" t="n">
-        <v>571.96081</v>
+        <v>4093.3161</v>
       </c>
       <c r="I6" t="n">
-        <v>529.38721</v>
+        <v>3601.61842</v>
       </c>
       <c r="J6" t="n">
-        <v>4265.39219</v>
+        <v>22066.00032</v>
       </c>
       <c r="K6" t="n">
-        <v>998.97761</v>
+        <v>5989.61633</v>
       </c>
       <c r="L6" t="n">
-        <v>1412.54073</v>
+        <v>4948.56901</v>
       </c>
       <c r="M6" t="n">
-        <v>623.39537</v>
+        <v>10406.48704</v>
       </c>
       <c r="N6" t="n">
-        <v>1527.65754</v>
+        <v>10643.64116</v>
       </c>
       <c r="O6" t="n">
-        <v>7311.88821</v>
+        <v>66286.82563000001</v>
       </c>
       <c r="P6" t="n">
-        <v>594.9029399999999</v>
+        <v>2728.98715</v>
       </c>
       <c r="Q6" t="n">
-        <v>1600.40153</v>
+        <v>13271.7868</v>
       </c>
       <c r="R6" t="n">
-        <v>349.12931</v>
+        <v>1650.29467</v>
       </c>
       <c r="S6" t="n">
-        <v>209.06741</v>
+        <v>4347.50008</v>
       </c>
       <c r="T6" t="n">
-        <v>3266.80688</v>
+        <v>28151.81311</v>
       </c>
       <c r="U6" t="n">
-        <v>2732.98904</v>
+        <v>13200.25715</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1143.41906</v>
+        <v>3364.6979</v>
       </c>
       <c r="C7" t="n">
-        <v>2099.19334</v>
+        <v>4988.7582</v>
       </c>
       <c r="D7" t="n">
-        <v>475.90983</v>
+        <v>2694.2088</v>
       </c>
       <c r="E7" t="n">
-        <v>1101.8289</v>
+        <v>8867.397199999999</v>
       </c>
       <c r="F7" t="n">
-        <v>561.22972</v>
+        <v>5045.3581</v>
       </c>
       <c r="G7" t="n">
-        <v>409.76839</v>
+        <v>3746.5752</v>
       </c>
       <c r="H7" t="n">
-        <v>536.21934</v>
+        <v>4022.9147</v>
       </c>
       <c r="I7" t="n">
-        <v>563.94927</v>
+        <v>3871.9387</v>
       </c>
       <c r="J7" t="n">
-        <v>3884.62506</v>
+        <v>23578.3722</v>
       </c>
       <c r="K7" t="n">
-        <v>929.71693</v>
+        <v>6363.3982</v>
       </c>
       <c r="L7" t="n">
-        <v>1514.92085</v>
+        <v>5075.0899</v>
       </c>
       <c r="M7" t="n">
-        <v>681.33043</v>
+        <v>10078.4923</v>
       </c>
       <c r="N7" t="n">
-        <v>1648.2316</v>
+        <v>12316.2124</v>
       </c>
       <c r="O7" t="n">
-        <v>7816.35684</v>
+        <v>63834.5264</v>
       </c>
       <c r="P7" t="n">
-        <v>492.20455</v>
+        <v>2762.9502</v>
       </c>
       <c r="Q7" t="n">
-        <v>1591.26003</v>
+        <v>13668.727</v>
       </c>
       <c r="R7" t="n">
-        <v>343.28572</v>
+        <v>1752.4605</v>
       </c>
       <c r="S7" t="n">
-        <v>246.79281</v>
+        <v>3875.8549</v>
       </c>
       <c r="T7" t="n">
-        <v>3426.46633</v>
+        <v>24840.807</v>
       </c>
       <c r="U7" t="n">
-        <v>2691.75008</v>
+        <v>15576.1346</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>880.7329</v>
+        <v>3626.429</v>
       </c>
       <c r="C8" t="n">
-        <v>2018.3681</v>
+        <v>5879.1689</v>
       </c>
       <c r="D8" t="n">
-        <v>565.2030999999999</v>
+        <v>2225.0908</v>
       </c>
       <c r="E8" t="n">
-        <v>1248.5142</v>
+        <v>10427.4353</v>
       </c>
       <c r="F8" t="n">
-        <v>644.5225</v>
+        <v>5598.6197</v>
       </c>
       <c r="G8" t="n">
-        <v>463.7614</v>
+        <v>4211.2088</v>
       </c>
       <c r="H8" t="n">
-        <v>636.0718000000001</v>
+        <v>4480.5737</v>
       </c>
       <c r="I8" t="n">
-        <v>638.6072</v>
+        <v>3772.2147</v>
       </c>
       <c r="J8" t="n">
-        <v>4162.9885</v>
+        <v>26992.6152</v>
       </c>
       <c r="K8" t="n">
-        <v>733.4419</v>
+        <v>7148.0819</v>
       </c>
       <c r="L8" t="n">
-        <v>1684.5293</v>
+        <v>5303.524</v>
       </c>
       <c r="M8" t="n">
-        <v>809.3027</v>
+        <v>10814.0227</v>
       </c>
       <c r="N8" t="n">
-        <v>1957.0784</v>
+        <v>12601.8655</v>
       </c>
       <c r="O8" t="n">
-        <v>9324.843699999999</v>
+        <v>69794.50019999999</v>
       </c>
       <c r="P8" t="n">
-        <v>477.7126</v>
+        <v>3062.5343</v>
       </c>
       <c r="Q8" t="n">
-        <v>1794.684</v>
+        <v>14431.4146</v>
       </c>
       <c r="R8" t="n">
-        <v>309.4163</v>
+        <v>2090.5621</v>
       </c>
       <c r="S8" t="n">
-        <v>723.4596</v>
+        <v>3774.7775</v>
       </c>
       <c r="T8" t="n">
-        <v>4228.8253</v>
+        <v>28154.6493</v>
       </c>
       <c r="U8" t="n">
-        <v>2887.2393</v>
+        <v>16651.4857</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1245.984</v>
+        <v>3353.705</v>
       </c>
       <c r="C9" t="n">
-        <v>1773.28682</v>
+        <v>5886.73</v>
       </c>
       <c r="D9" t="n">
-        <v>698.86292</v>
+        <v>2245.879</v>
       </c>
       <c r="E9" t="n">
-        <v>1397.51355</v>
+        <v>12917.042</v>
       </c>
       <c r="F9" t="n">
-        <v>923.68858</v>
+        <v>6556.944</v>
       </c>
       <c r="G9" t="n">
-        <v>535.77918</v>
+        <v>4985.109</v>
       </c>
       <c r="H9" t="n">
-        <v>824.06085</v>
+        <v>7779.749</v>
       </c>
       <c r="I9" t="n">
-        <v>780.22938</v>
+        <v>3569.91</v>
       </c>
       <c r="J9" t="n">
-        <v>5258.73806</v>
+        <v>29742.841</v>
       </c>
       <c r="K9" t="n">
-        <v>938.02336</v>
+        <v>8174.633</v>
       </c>
       <c r="L9" t="n">
-        <v>2029.84498</v>
+        <v>5444.532</v>
       </c>
       <c r="M9" t="n">
-        <v>999.69445</v>
+        <v>11015.357</v>
       </c>
       <c r="N9" t="n">
-        <v>2728.12948</v>
+        <v>14555.37</v>
       </c>
       <c r="O9" t="n">
-        <v>12808.51103</v>
+        <v>77997.084</v>
       </c>
       <c r="P9" t="n">
-        <v>501.47204</v>
+        <v>3250.216</v>
       </c>
       <c r="Q9" t="n">
-        <v>2150.87756</v>
+        <v>18367.365</v>
       </c>
       <c r="R9" t="n">
-        <v>359.87419</v>
+        <v>2378.359</v>
       </c>
       <c r="S9" t="n">
-        <v>656.5254</v>
+        <v>4287.531</v>
       </c>
       <c r="T9" t="n">
-        <v>6010.48884</v>
+        <v>31303.682</v>
       </c>
       <c r="U9" t="n">
-        <v>3443.91343</v>
+        <v>17838.173</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1128.9264</v>
+        <v>3106.4</v>
       </c>
       <c r="C10" t="n">
-        <v>1891.3651</v>
+        <v>6819</v>
       </c>
       <c r="D10" t="n">
-        <v>1072.4753</v>
+        <v>2260.7</v>
       </c>
       <c r="E10" t="n">
-        <v>2022.7746</v>
+        <v>15693</v>
       </c>
       <c r="F10" t="n">
-        <v>1343.8044</v>
+        <v>8043.5</v>
       </c>
       <c r="G10" t="n">
-        <v>880.1744</v>
+        <v>5242.4</v>
       </c>
       <c r="H10" t="n">
-        <v>1136.1481</v>
+        <v>6022.5</v>
       </c>
       <c r="I10" t="n">
-        <v>1196.0561</v>
+        <v>3781.6</v>
       </c>
       <c r="J10" t="n">
-        <v>8234.9115</v>
+        <v>33776.6</v>
       </c>
       <c r="K10" t="n">
-        <v>1863.6324</v>
+        <v>11108.3</v>
       </c>
       <c r="L10" t="n">
-        <v>2445.3576</v>
+        <v>5827.8</v>
       </c>
       <c r="M10" t="n">
-        <v>2569.4217</v>
+        <v>10900.9</v>
       </c>
       <c r="N10" t="n">
-        <v>3858.031</v>
+        <v>15972.6</v>
       </c>
       <c r="O10" t="n">
-        <v>21104.0982</v>
+        <v>88275.10000000001</v>
       </c>
       <c r="P10" t="n">
-        <v>977.8918</v>
+        <v>3665.3</v>
       </c>
       <c r="Q10" t="n">
-        <v>3123.4788</v>
+        <v>19449.6</v>
       </c>
       <c r="R10" t="n">
-        <v>518.2458</v>
+        <v>2871.6</v>
       </c>
       <c r="S10" t="n">
-        <v>1887.7852</v>
+        <v>3905.9</v>
       </c>
       <c r="T10" t="n">
-        <v>9786.8105</v>
+        <v>37723.9</v>
       </c>
       <c r="U10" t="n">
-        <v>4859.8605</v>
+        <v>19528.4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1309.30305</v>
+        <v>3756.3825</v>
       </c>
       <c r="C11" t="n">
-        <v>2132.53578</v>
+        <v>8048.6201</v>
       </c>
       <c r="D11" t="n">
-        <v>973.56175</v>
+        <v>2272.9821</v>
       </c>
       <c r="E11" t="n">
-        <v>2492.17751</v>
+        <v>19063.3598</v>
       </c>
       <c r="F11" t="n">
-        <v>1685.77148</v>
+        <v>10904.0332</v>
       </c>
       <c r="G11" t="n">
-        <v>915.3031099999999</v>
+        <v>6412.0544</v>
       </c>
       <c r="H11" t="n">
-        <v>1796.23425</v>
+        <v>6845.5745</v>
       </c>
       <c r="I11" t="n">
-        <v>1179.25398</v>
+        <v>4314.7287</v>
       </c>
       <c r="J11" t="n">
-        <v>9965.09281</v>
+        <v>38389.6971</v>
       </c>
       <c r="K11" t="n">
-        <v>2242.60918</v>
+        <v>12408.2823</v>
       </c>
       <c r="L11" t="n">
-        <v>2650.51335</v>
+        <v>5623.8536</v>
       </c>
       <c r="M11" t="n">
-        <v>3100.03022</v>
+        <v>14120.0086</v>
       </c>
       <c r="N11" t="n">
-        <v>4441.00095</v>
+        <v>17319.111</v>
       </c>
       <c r="O11" t="n">
-        <v>23489.11562</v>
+        <v>105341.2478</v>
       </c>
       <c r="P11" t="n">
-        <v>1019.91474</v>
+        <v>4226.6663</v>
       </c>
       <c r="Q11" t="n">
-        <v>3422.77918</v>
+        <v>22288.7226</v>
       </c>
       <c r="R11" t="n">
-        <v>736.87737</v>
+        <v>3057.1853</v>
       </c>
       <c r="S11" t="n">
-        <v>2025.27354</v>
+        <v>4339.6359</v>
       </c>
       <c r="T11" t="n">
-        <v>10604.8292</v>
+        <v>45436.3282</v>
       </c>
       <c r="U11" t="n">
-        <v>5192.33474</v>
+        <v>22356.7231</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1735.1</v>
+        <v>5057.9812</v>
       </c>
       <c r="C12" t="n">
-        <v>2799.9</v>
+        <v>10005.639</v>
       </c>
       <c r="D12" t="n">
-        <v>1114.6</v>
+        <v>2578.0504</v>
       </c>
       <c r="E12" t="n">
-        <v>3092.8</v>
+        <v>21869.065</v>
       </c>
       <c r="F12" t="n">
-        <v>2086.9</v>
+        <v>14020.524</v>
       </c>
       <c r="G12" t="n">
-        <v>1166.5</v>
+        <v>6860.1723</v>
       </c>
       <c r="H12" t="n">
-        <v>2168.7</v>
+        <v>8112.4657</v>
       </c>
       <c r="I12" t="n">
-        <v>1529.3</v>
+        <v>4413.6477</v>
       </c>
       <c r="J12" t="n">
-        <v>12858.4</v>
+        <v>46074.5142</v>
       </c>
       <c r="K12" t="n">
-        <v>3107.4</v>
+        <v>15044.3545</v>
       </c>
       <c r="L12" t="n">
-        <v>3164.7</v>
+        <v>6112.137</v>
       </c>
       <c r="M12" t="n">
-        <v>4345.8</v>
+        <v>15900.7595</v>
       </c>
       <c r="N12" t="n">
-        <v>5657.6</v>
+        <v>17166.0577</v>
       </c>
       <c r="O12" t="n">
-        <v>31041.1</v>
+        <v>122404.1515</v>
       </c>
       <c r="P12" t="n">
-        <v>1487.7</v>
+        <v>5052.5498</v>
       </c>
       <c r="Q12" t="n">
-        <v>4258.1</v>
+        <v>24938.5747</v>
       </c>
       <c r="R12" t="n">
-        <v>959.9</v>
+        <v>4046.3642</v>
       </c>
       <c r="S12" t="n">
-        <v>2908</v>
+        <v>4336.8255</v>
       </c>
       <c r="T12" t="n">
-        <v>14289.8</v>
+        <v>54319.0831</v>
       </c>
       <c r="U12" t="n">
-        <v>6734.3</v>
+        <v>26422.5963</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2340.0911</v>
+        <v>5740.8479</v>
       </c>
       <c r="C13" t="n">
-        <v>2974.4437</v>
+        <v>11970.6594</v>
       </c>
       <c r="D13" t="n">
-        <v>1632.9252</v>
+        <v>2877.277</v>
       </c>
       <c r="E13" t="n">
-        <v>4163.5626</v>
+        <v>24646.0736</v>
       </c>
       <c r="F13" t="n">
-        <v>2792.3423</v>
+        <v>18373.6067</v>
       </c>
       <c r="G13" t="n">
-        <v>1567.6748</v>
+        <v>7684.0719</v>
       </c>
       <c r="H13" t="n">
-        <v>2730.843</v>
+        <v>8977.0113</v>
       </c>
       <c r="I13" t="n">
-        <v>2364.5594</v>
+        <v>4825.0073</v>
       </c>
       <c r="J13" t="n">
-        <v>16462.1859</v>
+        <v>51887.0537</v>
       </c>
       <c r="K13" t="n">
-        <v>4116.9501</v>
+        <v>16775.6024</v>
       </c>
       <c r="L13" t="n">
-        <v>3840.8434</v>
+        <v>6682.8485</v>
       </c>
       <c r="M13" t="n">
-        <v>6181.394</v>
+        <v>21443.736</v>
       </c>
       <c r="N13" t="n">
-        <v>7142.8162</v>
+        <v>19114.973</v>
       </c>
       <c r="O13" t="n">
-        <v>41011.7894</v>
+        <v>146858.6775</v>
       </c>
       <c r="P13" t="n">
-        <v>1636.6605</v>
+        <v>5790.9102</v>
       </c>
       <c r="Q13" t="n">
-        <v>5880.739</v>
+        <v>27885.7743</v>
       </c>
       <c r="R13" t="n">
-        <v>1648.7542</v>
+        <v>4669.1849</v>
       </c>
       <c r="S13" t="n">
-        <v>3194.7957</v>
+        <v>4256.8071</v>
       </c>
       <c r="T13" t="n">
-        <v>18588.5344</v>
+        <v>60850.2936</v>
       </c>
       <c r="U13" t="n">
-        <v>8407.9827</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>2607.31234</v>
-      </c>
-      <c r="C14" t="n">
-        <v>3332.41004</v>
-      </c>
-      <c r="D14" t="n">
-        <v>2069.22612</v>
-      </c>
-      <c r="E14" t="n">
-        <v>4952.62339</v>
-      </c>
-      <c r="F14" t="n">
-        <v>3437.71184</v>
-      </c>
-      <c r="G14" t="n">
-        <v>2383.97694</v>
-      </c>
-      <c r="H14" t="n">
-        <v>3038.68879</v>
-      </c>
-      <c r="I14" t="n">
-        <v>2509.68101</v>
-      </c>
-      <c r="J14" t="n">
-        <v>15460.13762</v>
-      </c>
-      <c r="K14" t="n">
-        <v>4104.82793</v>
-      </c>
-      <c r="L14" t="n">
-        <v>4278.88313</v>
-      </c>
-      <c r="M14" t="n">
-        <v>8485.73698</v>
-      </c>
-      <c r="N14" t="n">
-        <v>8194.56875</v>
-      </c>
-      <c r="O14" t="n">
-        <v>49253.88979</v>
-      </c>
-      <c r="P14" t="n">
-        <v>2263.87955</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>9634.76397</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1281.2203</v>
-      </c>
-      <c r="S14" t="n">
-        <v>3107.7649</v>
-      </c>
-      <c r="T14" t="n">
-        <v>21345.95841</v>
-      </c>
-      <c r="U14" t="n">
-        <v>10183.95394</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>3103.23445</v>
-      </c>
-      <c r="C15" t="n">
-        <v>4083.9379</v>
-      </c>
-      <c r="D15" t="n">
-        <v>2138.60971</v>
-      </c>
-      <c r="E15" t="n">
-        <v>6203.89947</v>
-      </c>
-      <c r="F15" t="n">
-        <v>4330.36633</v>
-      </c>
-      <c r="G15" t="n">
-        <v>2757.67023</v>
-      </c>
-      <c r="H15" t="n">
-        <v>3687.27641</v>
-      </c>
-      <c r="I15" t="n">
-        <v>3061.91677</v>
-      </c>
-      <c r="J15" t="n">
-        <v>18831.74921</v>
-      </c>
-      <c r="K15" t="n">
-        <v>5272.46975</v>
-      </c>
-      <c r="L15" t="n">
-        <v>4644.29032</v>
-      </c>
-      <c r="M15" t="n">
-        <v>9829.265659999999</v>
-      </c>
-      <c r="N15" t="n">
-        <v>10809.37847</v>
-      </c>
-      <c r="O15" t="n">
-        <v>61129.86663</v>
-      </c>
-      <c r="P15" t="n">
-        <v>2556.54702</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>12120.74543</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1368.35618</v>
-      </c>
-      <c r="S15" t="n">
-        <v>3724.34866</v>
-      </c>
-      <c r="T15" t="n">
-        <v>26275.54026</v>
-      </c>
-      <c r="U15" t="n">
-        <v>12077.25728</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>3500.24832</v>
-      </c>
-      <c r="C16" t="n">
-        <v>4953.55058</v>
-      </c>
-      <c r="D16" t="n">
-        <v>2816.91997</v>
-      </c>
-      <c r="E16" t="n">
-        <v>7595.17752</v>
-      </c>
-      <c r="F16" t="n">
-        <v>5141.65108</v>
-      </c>
-      <c r="G16" t="n">
-        <v>3396.9372</v>
-      </c>
-      <c r="H16" t="n">
-        <v>4093.3161</v>
-      </c>
-      <c r="I16" t="n">
-        <v>3601.61842</v>
-      </c>
-      <c r="J16" t="n">
-        <v>22066.00032</v>
-      </c>
-      <c r="K16" t="n">
-        <v>5989.61633</v>
-      </c>
-      <c r="L16" t="n">
-        <v>4948.56901</v>
-      </c>
-      <c r="M16" t="n">
-        <v>10406.48704</v>
-      </c>
-      <c r="N16" t="n">
-        <v>10643.64116</v>
-      </c>
-      <c r="O16" t="n">
-        <v>66286.82563000001</v>
-      </c>
-      <c r="P16" t="n">
-        <v>2728.98715</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>13271.7868</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1650.29467</v>
-      </c>
-      <c r="S16" t="n">
-        <v>4347.50008</v>
-      </c>
-      <c r="T16" t="n">
-        <v>28151.81311</v>
-      </c>
-      <c r="U16" t="n">
-        <v>13200.25715</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>3364.6979</v>
-      </c>
-      <c r="C17" t="n">
-        <v>4988.7582</v>
-      </c>
-      <c r="D17" t="n">
-        <v>2694.2088</v>
-      </c>
-      <c r="E17" t="n">
-        <v>8867.397199999999</v>
-      </c>
-      <c r="F17" t="n">
-        <v>5045.3581</v>
-      </c>
-      <c r="G17" t="n">
-        <v>3746.5752</v>
-      </c>
-      <c r="H17" t="n">
-        <v>4022.9147</v>
-      </c>
-      <c r="I17" t="n">
-        <v>3871.9387</v>
-      </c>
-      <c r="J17" t="n">
-        <v>23578.3722</v>
-      </c>
-      <c r="K17" t="n">
-        <v>6363.3982</v>
-      </c>
-      <c r="L17" t="n">
-        <v>5075.0899</v>
-      </c>
-      <c r="M17" t="n">
-        <v>10078.4923</v>
-      </c>
-      <c r="N17" t="n">
-        <v>12316.2124</v>
-      </c>
-      <c r="O17" t="n">
-        <v>63834.5264</v>
-      </c>
-      <c r="P17" t="n">
-        <v>2762.9502</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>13668.727</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1752.4605</v>
-      </c>
-      <c r="S17" t="n">
-        <v>3875.8549</v>
-      </c>
-      <c r="T17" t="n">
-        <v>24840.807</v>
-      </c>
-      <c r="U17" t="n">
-        <v>15576.1346</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>3626.429</v>
-      </c>
-      <c r="C18" t="n">
-        <v>5879.1689</v>
-      </c>
-      <c r="D18" t="n">
-        <v>2225.0908</v>
-      </c>
-      <c r="E18" t="n">
-        <v>10427.4353</v>
-      </c>
-      <c r="F18" t="n">
-        <v>5598.6197</v>
-      </c>
-      <c r="G18" t="n">
-        <v>4211.2088</v>
-      </c>
-      <c r="H18" t="n">
-        <v>4480.5737</v>
-      </c>
-      <c r="I18" t="n">
-        <v>3772.2147</v>
-      </c>
-      <c r="J18" t="n">
-        <v>26992.6152</v>
-      </c>
-      <c r="K18" t="n">
-        <v>7148.0819</v>
-      </c>
-      <c r="L18" t="n">
-        <v>5303.524</v>
-      </c>
-      <c r="M18" t="n">
-        <v>10814.0227</v>
-      </c>
-      <c r="N18" t="n">
-        <v>12601.8655</v>
-      </c>
-      <c r="O18" t="n">
-        <v>69794.50019999999</v>
-      </c>
-      <c r="P18" t="n">
-        <v>3062.5343</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>14431.4146</v>
-      </c>
-      <c r="R18" t="n">
-        <v>2090.5621</v>
-      </c>
-      <c r="S18" t="n">
-        <v>3774.7775</v>
-      </c>
-      <c r="T18" t="n">
-        <v>28154.6493</v>
-      </c>
-      <c r="U18" t="n">
-        <v>16651.4857</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>3353.705</v>
-      </c>
-      <c r="C19" t="n">
-        <v>5886.73</v>
-      </c>
-      <c r="D19" t="n">
-        <v>2245.879</v>
-      </c>
-      <c r="E19" t="n">
-        <v>12917.042</v>
-      </c>
-      <c r="F19" t="n">
-        <v>6556.944</v>
-      </c>
-      <c r="G19" t="n">
-        <v>4985.109</v>
-      </c>
-      <c r="H19" t="n">
-        <v>7779.749</v>
-      </c>
-      <c r="I19" t="n">
-        <v>3569.91</v>
-      </c>
-      <c r="J19" t="n">
-        <v>29742.841</v>
-      </c>
-      <c r="K19" t="n">
-        <v>8174.633</v>
-      </c>
-      <c r="L19" t="n">
-        <v>5444.532</v>
-      </c>
-      <c r="M19" t="n">
-        <v>11015.357</v>
-      </c>
-      <c r="N19" t="n">
-        <v>14555.37</v>
-      </c>
-      <c r="O19" t="n">
-        <v>77997.084</v>
-      </c>
-      <c r="P19" t="n">
-        <v>3250.216</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>18367.365</v>
-      </c>
-      <c r="R19" t="n">
-        <v>2378.359</v>
-      </c>
-      <c r="S19" t="n">
-        <v>4287.531</v>
-      </c>
-      <c r="T19" t="n">
-        <v>31303.682</v>
-      </c>
-      <c r="U19" t="n">
-        <v>17838.173</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>3106.4</v>
-      </c>
-      <c r="C20" t="n">
-        <v>6819</v>
-      </c>
-      <c r="D20" t="n">
-        <v>2260.7</v>
-      </c>
-      <c r="E20" t="n">
-        <v>15693</v>
-      </c>
-      <c r="F20" t="n">
-        <v>8043.5</v>
-      </c>
-      <c r="G20" t="n">
-        <v>5242.4</v>
-      </c>
-      <c r="H20" t="n">
-        <v>6022.5</v>
-      </c>
-      <c r="I20" t="n">
-        <v>3781.6</v>
-      </c>
-      <c r="J20" t="n">
-        <v>33776.6</v>
-      </c>
-      <c r="K20" t="n">
-        <v>11108.3</v>
-      </c>
-      <c r="L20" t="n">
-        <v>5827.8</v>
-      </c>
-      <c r="M20" t="n">
-        <v>10900.9</v>
-      </c>
-      <c r="N20" t="n">
-        <v>15972.6</v>
-      </c>
-      <c r="O20" t="n">
-        <v>88275.10000000001</v>
-      </c>
-      <c r="P20" t="n">
-        <v>3665.3</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>19449.6</v>
-      </c>
-      <c r="R20" t="n">
-        <v>2871.6</v>
-      </c>
-      <c r="S20" t="n">
-        <v>3905.9</v>
-      </c>
-      <c r="T20" t="n">
-        <v>37723.9</v>
-      </c>
-      <c r="U20" t="n">
-        <v>19528.4</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>3756.3825</v>
-      </c>
-      <c r="C21" t="n">
-        <v>8048.6201</v>
-      </c>
-      <c r="D21" t="n">
-        <v>2272.9821</v>
-      </c>
-      <c r="E21" t="n">
-        <v>19063.3598</v>
-      </c>
-      <c r="F21" t="n">
-        <v>10904.0332</v>
-      </c>
-      <c r="G21" t="n">
-        <v>6412.0544</v>
-      </c>
-      <c r="H21" t="n">
-        <v>6845.5745</v>
-      </c>
-      <c r="I21" t="n">
-        <v>4314.7287</v>
-      </c>
-      <c r="J21" t="n">
-        <v>38389.6971</v>
-      </c>
-      <c r="K21" t="n">
-        <v>12408.2823</v>
-      </c>
-      <c r="L21" t="n">
-        <v>5623.8536</v>
-      </c>
-      <c r="M21" t="n">
-        <v>14120.0086</v>
-      </c>
-      <c r="N21" t="n">
-        <v>17319.111</v>
-      </c>
-      <c r="O21" t="n">
-        <v>105341.2478</v>
-      </c>
-      <c r="P21" t="n">
-        <v>4226.6663</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>22288.7226</v>
-      </c>
-      <c r="R21" t="n">
-        <v>3057.1853</v>
-      </c>
-      <c r="S21" t="n">
-        <v>4339.6359</v>
-      </c>
-      <c r="T21" t="n">
-        <v>45436.3282</v>
-      </c>
-      <c r="U21" t="n">
-        <v>22356.7231</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>5057.9812</v>
-      </c>
-      <c r="C22" t="n">
-        <v>10005.639</v>
-      </c>
-      <c r="D22" t="n">
-        <v>2578.0504</v>
-      </c>
-      <c r="E22" t="n">
-        <v>21869.065</v>
-      </c>
-      <c r="F22" t="n">
-        <v>14020.524</v>
-      </c>
-      <c r="G22" t="n">
-        <v>6860.1723</v>
-      </c>
-      <c r="H22" t="n">
-        <v>8112.4657</v>
-      </c>
-      <c r="I22" t="n">
-        <v>4413.6477</v>
-      </c>
-      <c r="J22" t="n">
-        <v>46074.5142</v>
-      </c>
-      <c r="K22" t="n">
-        <v>15044.3545</v>
-      </c>
-      <c r="L22" t="n">
-        <v>6112.137</v>
-      </c>
-      <c r="M22" t="n">
-        <v>15900.7595</v>
-      </c>
-      <c r="N22" t="n">
-        <v>17166.0577</v>
-      </c>
-      <c r="O22" t="n">
-        <v>122404.1515</v>
-      </c>
-      <c r="P22" t="n">
-        <v>5052.5498</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>24938.5747</v>
-      </c>
-      <c r="R22" t="n">
-        <v>4046.3642</v>
-      </c>
-      <c r="S22" t="n">
-        <v>4336.8255</v>
-      </c>
-      <c r="T22" t="n">
-        <v>54319.0831</v>
-      </c>
-      <c r="U22" t="n">
-        <v>26422.5963</v>
+        <v>30349.7672</v>
       </c>
     </row>
   </sheetData>
